--- a/Progress_Tracking_sheet.xlsx
+++ b/Progress_Tracking_sheet.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$16</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>User Story ID</t>
   </si>
@@ -53,9 +56,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Sem notandi vil ég geta valið stærð herbergja (í mannfjölda) því margir þurfa gista saman</t>
-  </si>
-  <si>
     <t>Sem notandi vil ég geta sett skorður á leitina til að henta mínum þörfum</t>
   </si>
   <si>
@@ -65,25 +65,64 @@
     <t>Sem notandi vil ég geta séð hvað herbergi kostar því peningarnir eru af skornum skammti</t>
   </si>
   <si>
-    <t>∞</t>
-  </si>
-  <si>
-    <t>Sem hóteleigandi vil ég geta tekið frá herbergi því bróðir er mikilvægur</t>
-  </si>
-  <si>
-    <t>Sem notandi vil ég geta hætt við kaup á herbergi því ég veiktist skyndilega</t>
-  </si>
-  <si>
     <t>Sem notandi vil ég geta hætt við körfuna á herbergi því ég er bara að "window shop"-a</t>
   </si>
   <si>
     <t>Sem hóteleigandi vil ég geta gefið tímabundna afslætti af herbergjum því það er low-season</t>
   </si>
   <si>
-    <t>Sem hóteleigandi vil ég geta breyttt verðum hótelherbergja varanlega því gerðar voru endurbætur</t>
-  </si>
-  <si>
     <t>7H</t>
+  </si>
+  <si>
+    <t>Sem hóteleigandi vil ég geta breytt verðum hótelherbergja varanlega því gerðar voru endurbætur</t>
+  </si>
+  <si>
+    <t>Sem hótelstjóri vil ég geta fjarlægt hótelið mitt úr leitarvél því það fór á hausinn</t>
+  </si>
+  <si>
+    <t>Sem Sys-admin vil ég geta bætt við nýjum hótelum því ný hótel spruttu upp</t>
+  </si>
+  <si>
+    <t>Sem hótelstjóri vil ég geta breytt lýsingunni á hótelinu því sundlaugin bilaði</t>
+  </si>
+  <si>
+    <t>Sem notandi vil ég geta raðar leitarniðurstöðum eftir skilyrðum (s.s. verði, stjörnum) því niðurstöðurnar eru margar</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>Sem notandi vil ég geta valið stærð herbergja (í svefplássum) því margir þurfa gista saman</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>Sem hóteleigandi vil ég geta tekið frá herbergi því æskuvinur er að koma í heimsókn</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>Sem notandi vil ég geta afturkallað bókunina því ég kemst ekki</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>2,2</t>
   </si>
 </sst>
 </file>
@@ -91,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="\#\ #"/>
+    <numFmt numFmtId="164" formatCode="\#\ #"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -153,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -170,18 +209,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,123 +529,295 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="D16" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="E16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="A4:G16">
+    <sortCondition ref="D4:D16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
